--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_T45.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1731642157519614</v>
+        <v>0.264129366914366</v>
       </c>
       <c r="C2">
-        <v>1.413547782194926</v>
+        <v>1.448131862155378</v>
       </c>
       <c r="D2">
-        <v>8.086932420400643</v>
+        <v>7.934253886187869</v>
       </c>
       <c r="E2">
-        <v>2.843753227760919</v>
+        <v>2.816780766440276</v>
       </c>
       <c r="F2">
-        <v>2.908572485519801</v>
+        <v>2.870363925838609</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07294653543575393</v>
+        <v>0.5477676633828543</v>
       </c>
       <c r="C3">
-        <v>1.500615912326156</v>
+        <v>1.907452784230856</v>
       </c>
       <c r="D3">
-        <v>10.33530564440711</v>
+        <v>14.64723191001851</v>
       </c>
       <c r="E3">
-        <v>3.214857017723668</v>
+        <v>3.827170222242344</v>
       </c>
       <c r="F3">
-        <v>3.297524501704596</v>
+        <v>3.881306689997472</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4529690325584069</v>
+        <v>-0.8445613698142435</v>
       </c>
       <c r="C4">
-        <v>1.004314302484205</v>
+        <v>1.368339376243751</v>
       </c>
       <c r="D4">
-        <v>4.061252568191996</v>
+        <v>7.290098563283141</v>
       </c>
       <c r="E4">
-        <v>2.015254963569622</v>
+        <v>2.700018252398146</v>
       </c>
       <c r="F4">
-        <v>2.017497912032058</v>
+        <v>2.631152370290416</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02004992237023233</v>
+        <v>-0.02661223054417471</v>
       </c>
       <c r="C5">
-        <v>0.4886115463688763</v>
+        <v>0.470512716437627</v>
       </c>
       <c r="D5">
-        <v>0.5584752042946873</v>
+        <v>0.5301842917739205</v>
       </c>
       <c r="E5">
-        <v>0.74731198591665</v>
+        <v>0.7281375500370245</v>
       </c>
       <c r="F5">
-        <v>0.7687008784243954</v>
+        <v>0.7475904084393145</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01676786994560883</v>
+        <v>0.07547341295830622</v>
       </c>
       <c r="C6">
-        <v>0.6573593336826542</v>
+        <v>0.7121491052738879</v>
       </c>
       <c r="D6">
-        <v>1.050280956870358</v>
+        <v>1.142006432124239</v>
       </c>
       <c r="E6">
-        <v>1.024832160341564</v>
+        <v>1.068647010066579</v>
       </c>
       <c r="F6">
-        <v>1.056231405810694</v>
+        <v>1.096882843470316</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1290237123389107</v>
+        <v>-0.2117013632410417</v>
       </c>
       <c r="C7">
-        <v>0.546095341057971</v>
+        <v>0.6042393667413337</v>
       </c>
       <c r="D7">
-        <v>0.7675384814132623</v>
+        <v>0.8609082534243339</v>
       </c>
       <c r="E7">
-        <v>0.8760927356240675</v>
+        <v>0.9278514177519663</v>
       </c>
       <c r="F7">
-        <v>0.8949585394151237</v>
+        <v>0.9311801438848216</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05743074201659111</v>
+        <v>-0.06838949262952414</v>
       </c>
       <c r="C8">
-        <v>0.3012462866707471</v>
+        <v>0.4031547194043731</v>
       </c>
       <c r="D8">
-        <v>0.1939761629513373</v>
+        <v>0.4042733775863497</v>
       </c>
       <c r="E8">
-        <v>0.4404272504640662</v>
+        <v>0.6358249582914701</v>
       </c>
       <c r="F8">
-        <v>0.4531505285238395</v>
+        <v>0.6543231957670564</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
